--- a/team_specific_matrix/VMI_B.xlsx
+++ b/team_specific_matrix/VMI_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.236734693877551</v>
+        <v>0.2315112540192926</v>
       </c>
       <c r="C2">
-        <v>0.436734693877551</v>
+        <v>0.4565916398713826</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02448979591836735</v>
+        <v>0.02572347266881029</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1673469387755102</v>
+        <v>0.157556270096463</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1346938775510204</v>
+        <v>0.1286173633440514</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008849557522123894</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C3">
-        <v>0.03539823008849557</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04424778761061947</v>
+        <v>0.04635761589403974</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7079646017699115</v>
+        <v>0.695364238410596</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2035398230088496</v>
+        <v>0.2119205298013245</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1081081081081081</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6756756756756757</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2162162162162162</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01807228915662651</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01204819277108434</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08433734939759036</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2530120481927711</v>
+        <v>0.2512562814070352</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02409638554216868</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1746987951807229</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="R6">
-        <v>0.07228915662650602</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="S6">
-        <v>0.3614457831325301</v>
+        <v>0.3517587939698493</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1181102362204724</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01574803149606299</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01574803149606299</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1023622047244094</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04724409448818898</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2047244094488189</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="R7">
-        <v>0.1259842519685039</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="S7">
-        <v>0.3700787401574803</v>
+        <v>0.4076433121019108</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08602150537634409</v>
+        <v>0.08528784648187633</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01344086021505376</v>
+        <v>0.01066098081023454</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="F8">
-        <v>0.05376344086021505</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1263440860215054</v>
+        <v>0.1300639658848614</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01075268817204301</v>
+        <v>0.01279317697228145</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1962365591397849</v>
+        <v>0.1833688699360341</v>
       </c>
       <c r="R8">
-        <v>0.08870967741935484</v>
+        <v>0.1023454157782516</v>
       </c>
       <c r="S8">
-        <v>0.4247311827956989</v>
+        <v>0.417910447761194</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0945945945945946</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02027027027027027</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06756756756756757</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1216216216216216</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02702702702702703</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2094594594594595</v>
+        <v>0.2076502732240437</v>
       </c>
       <c r="R9">
-        <v>0.1013513513513514</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="S9">
-        <v>0.3581081081081081</v>
+        <v>0.366120218579235</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09380234505862646</v>
+        <v>0.1010309278350515</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02177554438860971</v>
+        <v>0.02199312714776632</v>
       </c>
       <c r="E10">
-        <v>0.0008375209380234506</v>
+        <v>0.0006872852233676976</v>
       </c>
       <c r="F10">
-        <v>0.05192629815745393</v>
+        <v>0.04810996563573883</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1222780569514238</v>
+        <v>0.1223367697594502</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007537688442211055</v>
+        <v>0.008934707903780068</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2269681742043551</v>
+        <v>0.2219931271477663</v>
       </c>
       <c r="R10">
-        <v>0.1038525963149079</v>
+        <v>0.1010309278350515</v>
       </c>
       <c r="S10">
-        <v>0.3710217755443886</v>
+        <v>0.3738831615120275</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1586538461538461</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09134615384615384</v>
+        <v>0.1007751937984496</v>
       </c>
       <c r="K11">
-        <v>0.2163461538461539</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="L11">
-        <v>0.5240384615384616</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009615384615384616</v>
+        <v>0.007751937984496124</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7685185185185185</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1851851851851852</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.009259259259259259</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03703703703703703</v>
+        <v>0.03875968992248062</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5925925925925926</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2962962962962963</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01744186046511628</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1686046511627907</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="I15">
-        <v>0.04651162790697674</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J15">
-        <v>0.4011627906976744</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="K15">
-        <v>0.04069767441860465</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005813953488372093</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06976744186046512</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007142857142857143</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1642857142857143</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="I16">
-        <v>0.04285714285714286</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03571428571428571</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="O16">
-        <v>0.04285714285714286</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1071428571428571</v>
+        <v>0.1055555555555556</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02132701421800948</v>
+        <v>0.02</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1800947867298578</v>
+        <v>0.18</v>
       </c>
       <c r="I17">
-        <v>0.1090047393364929</v>
+        <v>0.116</v>
       </c>
       <c r="J17">
-        <v>0.457345971563981</v>
+        <v>0.46</v>
       </c>
       <c r="K17">
-        <v>0.06398104265402843</v>
+        <v>0.06</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009478672985781991</v>
+        <v>0.008</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04739336492890995</v>
+        <v>0.046</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1113744075829384</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01005025125628141</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1708542713567839</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="I18">
-        <v>0.05527638190954774</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J18">
-        <v>0.5125628140703518</v>
+        <v>0.4773662551440329</v>
       </c>
       <c r="K18">
-        <v>0.09045226130653267</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01005025125628141</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N18">
-        <v>0.005025125628140704</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="O18">
-        <v>0.07035175879396985</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07537688442211055</v>
+        <v>0.06995884773662552</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02009569377990431</v>
+        <v>0.02012383900928793</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2038277511961722</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I19">
-        <v>0.07272727272727272</v>
+        <v>0.0673374613003096</v>
       </c>
       <c r="J19">
-        <v>0.4210526315789473</v>
+        <v>0.4148606811145511</v>
       </c>
       <c r="K19">
-        <v>0.09090909090909091</v>
+        <v>0.09597523219814241</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01913875598086124</v>
+        <v>0.01857585139318885</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007739938080495357</v>
       </c>
       <c r="O19">
-        <v>0.07081339712918661</v>
+        <v>0.06888544891640867</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1014354066985646</v>
+        <v>0.1029411764705882</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/VMI_B.xlsx
+++ b/team_specific_matrix/VMI_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2315112540192926</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C2">
-        <v>0.4565916398713826</v>
+        <v>0.4585798816568047</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02572347266881029</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.157556270096463</v>
+        <v>0.1597633136094675</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1286173633440514</v>
+        <v>0.121301775147929</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006622516556291391</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.03973509933774835</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04635761589403974</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.695364238410596</v>
+        <v>0.6890243902439024</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2119205298013245</v>
+        <v>0.2073170731707317</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7045454545454546</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2045454545454546</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03015075376884422</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01507537688442211</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09045226130653267</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2512562814070352</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02512562814070352</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1658291457286432</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="R6">
-        <v>0.07035175879396985</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="S6">
-        <v>0.3517587939698493</v>
+        <v>0.3424657534246575</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1082802547770701</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01273885350318471</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01273885350318471</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1210191082802548</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03821656050955414</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1847133757961783</v>
+        <v>0.2114285714285714</v>
       </c>
       <c r="R7">
-        <v>0.1146496815286624</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="S7">
-        <v>0.4076433121019108</v>
+        <v>0.3885714285714286</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08528784648187633</v>
+        <v>0.08858267716535433</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01066098081023454</v>
+        <v>0.00984251968503937</v>
       </c>
       <c r="E8">
-        <v>0.002132196162046908</v>
+        <v>0.001968503937007874</v>
       </c>
       <c r="F8">
-        <v>0.05543710021321962</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1300639658848614</v>
+        <v>0.1299212598425197</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01279317697228145</v>
+        <v>0.01377952755905512</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1833688699360341</v>
+        <v>0.1909448818897638</v>
       </c>
       <c r="R8">
-        <v>0.1023454157782516</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="S8">
-        <v>0.417910447761194</v>
+        <v>0.4074803149606299</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09836065573770492</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01639344262295082</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06557377049180328</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1256830601092896</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0273224043715847</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2076502732240437</v>
+        <v>0.2060301507537688</v>
       </c>
       <c r="R9">
-        <v>0.09289617486338798</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="S9">
-        <v>0.366120218579235</v>
+        <v>0.3668341708542713</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1010309278350515</v>
+        <v>0.09661538461538462</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02199312714776632</v>
+        <v>0.02215384615384615</v>
       </c>
       <c r="E10">
-        <v>0.0006872852233676976</v>
+        <v>0.0006153846153846154</v>
       </c>
       <c r="F10">
-        <v>0.04810996563573883</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1223367697594502</v>
+        <v>0.1212307692307692</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008934707903780068</v>
+        <v>0.01292307692307692</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2219931271477663</v>
+        <v>0.2258461538461538</v>
       </c>
       <c r="R10">
-        <v>0.1010309278350515</v>
+        <v>0.1009230769230769</v>
       </c>
       <c r="S10">
-        <v>0.3738831615120275</v>
+        <v>0.3735384615384615</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1550387596899225</v>
+        <v>0.1508771929824561</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1007751937984496</v>
+        <v>0.09824561403508772</v>
       </c>
       <c r="K11">
-        <v>0.2325581395348837</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="L11">
-        <v>0.5038759689922481</v>
+        <v>0.5228070175438596</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007751937984496124</v>
+        <v>0.007017543859649123</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7674418604651163</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1782945736434109</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L12">
-        <v>0.01550387596899225</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03875968992248062</v>
+        <v>0.03378378378378379</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6470588235294118</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2647058823529412</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08823529411764706</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01904761904761905</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1619047619047619</v>
+        <v>0.1483050847457627</v>
       </c>
       <c r="I15">
-        <v>0.05714285714285714</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="J15">
-        <v>0.3904761904761905</v>
+        <v>0.3983050847457627</v>
       </c>
       <c r="K15">
-        <v>0.0380952380952381</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01428571428571429</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06190476190476191</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2571428571428571</v>
+        <v>0.2754237288135593</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01111111111111111</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1611111111111111</v>
+        <v>0.1597938144329897</v>
       </c>
       <c r="I16">
-        <v>0.03888888888888889</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="J16">
-        <v>0.5166666666666667</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="K16">
-        <v>0.08888888888888889</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="N16">
-        <v>0.005555555555555556</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="O16">
-        <v>0.04444444444444445</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1055555555555556</v>
+        <v>0.1185567010309278</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02</v>
+        <v>0.02292768959435626</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.18</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="I17">
-        <v>0.116</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J17">
-        <v>0.46</v>
+        <v>0.4673721340388007</v>
       </c>
       <c r="K17">
-        <v>0.06</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008</v>
+        <v>0.007054673721340388</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.046</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.11</v>
+        <v>0.1005291005291005</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01234567901234568</v>
+        <v>0.01107011070110701</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1975308641975309</v>
+        <v>0.1881918819188192</v>
       </c>
       <c r="I18">
-        <v>0.07407407407407407</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="J18">
-        <v>0.4773662551440329</v>
+        <v>0.4833948339483395</v>
       </c>
       <c r="K18">
-        <v>0.08230452674897119</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01234567901234568</v>
+        <v>0.01107011070110701</v>
       </c>
       <c r="N18">
-        <v>0.00411522633744856</v>
+        <v>0.007380073800738007</v>
       </c>
       <c r="O18">
-        <v>0.06995884773662552</v>
+        <v>0.06273062730627306</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06995884773662552</v>
+        <v>0.07749077490774908</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02012383900928793</v>
+        <v>0.02121640735502122</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2105263157894737</v>
+        <v>0.2072135785007072</v>
       </c>
       <c r="I19">
-        <v>0.0673374613003096</v>
+        <v>0.06577086280056577</v>
       </c>
       <c r="J19">
-        <v>0.4148606811145511</v>
+        <v>0.417963224893918</v>
       </c>
       <c r="K19">
-        <v>0.09597523219814241</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01857585139318885</v>
+        <v>0.01768033946251768</v>
       </c>
       <c r="N19">
-        <v>0.0007739938080495357</v>
+        <v>0.0007072135785007072</v>
       </c>
       <c r="O19">
-        <v>0.06888544891640867</v>
+        <v>0.07001414427157002</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1029411764705882</v>
+        <v>0.1004243281471004</v>
       </c>
     </row>
   </sheetData>
